--- a/medicine/Soins infirmiers et profession infirmière/Lillian_Kinkella_Keil/Lillian_Kinkella_Keil.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Lillian_Kinkella_Keil/Lillian_Kinkella_Keil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lillian Kinkella Keil, née le 17 novembre 1916 à Arcata et morte le 30 juin 2005 à Covina, est une capitaine de l'armée des États-Unis et infirmière très décorée durant la Seconde Guerre mondiale et la guerre de Corée. Keil a participé à 250 vols d’évacuations (dont 23 transatlantiques) durant la Seconde Guerre mondiale et 175 vols d'évacuations durant la guerre de Corée, devenant l'une des femmes les plus décorées de l'histoire militaire américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Keil est née à Arcata en Californie. Elle est élevée dans un couvent après que son père ait quitté sa mère en la laissant avec trois enfants en bas âge. Regarder les sœurs soigner les malades la conduira à devenir infirmière.
 Elle devient hôtesse de l'air en 1939 et s'engage en tant qu'infirmière de vol dans l'armée de terre après l'entrée en guerre des États-Unis en 1941, à la suggestion d'un passager.
@@ -549,7 +563,9 @@
           <t>Médailles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Keil reçoit dix-neuf médailles au cours de sa carrière :
 4 Air Medal
